--- a/code/output/HSS Pre-Registration 2021-22 - Courses Allocation.xlsx
+++ b/code/output/HSS Pre-Registration 2021-22 - Courses Allocation.xlsx
@@ -407,7 +407,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18110063, 16110045, 20310083, 20310082, 18110155, 17210109, 17250006, 20510118, 20570001, 18110061, 18110105, 17110158, 20250031, 20310027, 19310057, 18110060, 20250032, 18110160, 19310067, 18110082, 18110150, 18110141, 20310058, 20310047, 18110085, 20310038, 18110182, 18110194, 18110021, 18110193, 18110158, 18110038, 18110012, 18110128, 18110049, 18110189, 18110033, 20310035, 20310032, 19110147</t>
+          <t>18110063, 16110045, 20310083, 20310082, 18110155, 17210109, 17250006, 20510118, 20570001, 18110061, 18110105, 17110158, 20250031, 20310027, 19310057, 18110060, 20250032, 18110160, 19310067, 18110082, 18110150, 18110141, 20310058, 20310047, 18110085, 20310038, 18110182, 18110194, 18110021, 18110193, 18110158, 18110038, 18110012, 18110128, 18110049, 18110189, 18110033, 20310035, 20310032, 19110141</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19310069, 19110194, 20510071, 19110198, 19110174, 20310029, 20510076, 18110174, 20510064, 18110034, 20510110, 20510081, 19110172, 20510092, 19110193, 19310087, 18110088, 20570005, 20250042, 18110066, 20510032, 19110106, 20510101, 18110036, 20510102, 19310064, 20310015, 19310070, 19310056, 18110006, 19110197, 20510027, 19110026, 20510095, 20510104, 20510080, 19350008, 18110179, 20510094, 19310071</t>
+          <t>19110172, 20510107, 20510076, 19310069, 19310071, 19110194, 18110034, 19110026, 20510095, 20510071, 20250042, 19310056, 20310015, 18110088, 20510094, 19350008, 20510081, 20510110, 20510080, 20510102, 18110179, 19310070, 20510032, 19110198, 20510064, 18110036, 18110006, 19110174, 19110193, 20310029, 20510092, 20510104, 18110066, 19110106, 18110174, 20570005, 18110107, 20510101, 19310064, 19110197</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19110183, 19110086, 19110031, 19110139, 19110048, 19110044, 19110072, 19110004, 19110120, 18110044, 19110097, 20510116, 19110054, 19110073, 19110065, 19110205, 19110006, 19110185, 19110143, 19110050, 19110068, 18110137, 19110110, 19110188, 19110166, 19110155, 19110094, 20310069, 19110121, 19110036, 19110171, 19110137, 19110067, 20310097, 19110153, 19110075, 19110168, 19110109, 19110055, 19110047</t>
+          <t>19110051, 19110054, 20310069, 19110206, 19110097, 19110139, 19110101, 19110086, 19110052, 19110109, 19110055, 19110040, 18110153, 19110027, 19110100, 19110047, 19110045, 19110073, 19110053, 19110185, 19110065, 19110002, 19110044, 18110014, 19110155, 18110078, 19110039, 19110153, 19110066, 19110028, 19110020, 19110144, 19110166, 19110171, 20510116, 20310097, 19110050, 19110156, 19110043, 19110049</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20510056, 19110118, 20510068, 20510049, 20510048, 20510036, 20510077, 19110162, 18110035, 20510066, 19110096, 20510067, 20510057, 20510044, 20510069, 20510061, 18110032, 20510062, 20250015, 19110181, 19110125, 20510028, 19110076, 19110189, 20510082, 19110142, 20310075, 20510055, 18110019, 18110039, 20510073, 20250008, 20510079, 20510059, 19110170, 20510047, 18110136, 18110140, 19110010, 20310095</t>
+          <t>20510036, 19110118, 19110170, 18110172, 19110117, 20510058, 20310075, 20510055, 20510047, 20570002, 20510061, 20510062, 18110032, 19110125, 19110108, 19110079, 20510048, 19110181, 18110018, 19110076, 20510063, 19110128, 19110032, 19110046, 20250015, 19110160, 20310091, 19110008, 20310077, 20510053, 18110134, 20510029, 20310095, 18110077, 19110090, 20510073, 20510034, 19110105, 20210003, 19110096</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19110019, 19110161, 19110184, 18110071, 17110127, 18110152, 20570003, 19110186, 20510086, 19110093, 18110043, 19110130, 20250007, 19110209, 19110098, 19110176, 19110022, 19110103, 18310022, 19110083, 19110122, 19110204, 18110047, 20510088, 19110124, 20310026, 19110084, 19110024, 19110201, 18110147, 18110157, 18110084, 20510083, 20310096, 19110158, 15510056, 18110079, 20310094, 19110131, 20310031</t>
+          <t>19110163, 18110003, 19110122, 19110124, 19110130, 19110104, 18310022, 20310036, 17110127, 19110161, 19110201, 19110103, 19110158, 19110176, 18110104, 19110150, 19110022, 19110057, 20250007, 19110083, 19110093, 18110043, 19110084, 20510093, 15510056, 19110184, 18110047, 18110152, 20310096, 20310030, 20310094, 20310031, 20510083, 19110012, 18110147, 19110078, 20510117, 18110176, 19110179, 19110113</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19110123, 19110167, 19110192, 19110136, 18110067, 18110167, 18110168, 18110163, 18110025, 18110139, 18110045, 19110173, 19110138, 18110048, 20510031, 18110178, 18110117, 18110017, 18110074, 18110053, 18110040, 18110173, 18110104, 18110018, 18110029, 19110081, 18110078, 18110005, 20510070, 18110077, 20250038, 18110036, 18110084, 17110156, 20520026, 18110179, 18110160, 18110189, 18110119, 18110102</t>
+          <t>19110123, 19110167, 19110192, 19110136, 18110067, 18110167, 18110168, 18110163, 18110025, 18110139, 18110045, 19110173, 19110138, 18110048, 20510031, 18110178, 18110117, 18110017, 18110074, 18110053, 18110040, 18110173, 18110064, 18110084, 19110019, 20510049, 19110131, 18110131, 18110029, 19110081, 18110171, 18110005, 20510070, 18110177, 18110019, 20250038, 18110057, 18110138, 18110006, 18110160</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20520025, 18110052, 19110178, 18110064, 18110187, 17210054, 19110059, 18110065, 19110159, 18110171, 18110011, 18110183, 18110062, 18110091, 18110154, 19110151, 18110089, 19110165, 19110175, 18110144, 18110184, 18110111, 18110100, 18110009, 18110131, 18110015, 19110195, 18110170, 18110094, 18110109, 18110181, 18110002, 18110080, 18110114, 18110177, 19310074, 19110208, 19110141, 18110129, 20310059</t>
+          <t>18110023, 18110002, 18310048, 19110082, 18110110, 18110132, 19110195, 18110080, 18110183, 19110116, 18110191, 18110092, 18110068, 19110146, 20310059, 19110126, 18110165, 18110142, 19110007, 18110100, 19110180, 18110181, 19110207, 19310074, 18110159, 18110065, 18110127, 19110200, 18110090, 18110115, 18110051, 19110087, 19110164, 19110190, 20510016, 18110109, 18110091, 19110165, 18110154, 18110050</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17110084, 20250030, 18110022, 20510012, 20510014, 19110011, 20520006, 20510098, 17110156, 18110096, 18110001, 20510026, 20520026, 20510003, 20510038, 18110162, 18110075, 18110102, 18110151, 20520012, 18110097, 18110138, 18110057, 18110119, 18110116, 18110083, 18110058, 19110091, 19110117, 19110115, 19110113, 19110028, 18110191, 18110007, 19110078, 18110050, 18110068, 18110051, 18110110, 20510034</t>
+          <t>17110084, 20250030, 18110022, 20510012, 20510014, 19110011, 20520006, 20510098, 17110156, 18110096, 18110001, 20510026, 20520026, 20510003, 20510038, 18110162, 18110075, 18110102, 18110151, 20520012, 18110097, 18110138, 18110057, 18110119, 18110116, 18110083, 18110058, 18110089, 19110024, 18110136, 19110018, 19110072, 20510028, 18110140, 19110189, 18110187, 19110115, 19110091, 19110110, 18110071</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19110145, 17510060, 17310020, 17310031, 20250003, 18210007, 20310074, 20570006, 20310045, 20510111, 20310072, 20510042, 20510043, 20510022, 20510025, 20510035, 20510045, 20510039, 20510037, 20510030, 20510023, 17310001, 18110059, 19110009, 19110013, 20510113, 18110081, 19310004, 18110031, 19110029, 19110132, 19110202, 20510090, 18110188, 19110066, 19110180, 18110115, 18310048, 20510105, 20510024</t>
+          <t>19110145, 17510060, 17310020, 17310031, 20250003, 18210007, 20310074, 20570006, 20310045, 20510111, 20310072, 20510042, 20510043, 20510022, 20510025, 20510035, 20510045, 20510039, 20510037, 20510030, 20510023, 17310001, 18110059, 19110009, 19110013, 20510113, 18110081, 19310004, 18110031, 19110029, 19110132, 19110094, 20510105, 18110170, 20570003, 19110014, 20510088, 18110148, 20510024, 18110094</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20520020, 20510108, 20520017, 19110030, 20510084, 20520003, 20520009, 19110154, 19110016, 19110087, 20570007, 19110034, 19110146, 19110111, 19110207, 20250012, 20210003, 18110108, 19110150, 19110088, 19110127, 20520013, 18110175, 20310078, 19110075, 18110121, 18110035, 20520025, 18110016, 20520010, 18110100, 18110173</t>
+          <t>20520020, 20510108, 20520017, 19110030, 20510084, 20520003, 20520009, 20510089, 19110154, 19110016, 18110035, 20520025, 20570007, 20510106, 19110034, 19110111, 20510099, 19110004, 20250012, 19110075, 18110121, 19110036, 19110006, 19110186, 20520013, 18110175, 20310078, 18110108, 18110016, 19110087, 20520010, 18110100, 18110173, 19110207</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18110027, 17510005, 20570004, 20310079, 18110143, 20520010, 19110116, 18110026, 18110176, 19110152</t>
+          <t>18110027, 17510005, 20570004, 20310079, 18110143, 20520010, 18110026, 18110052, 19110152, 18110024</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20510089, 20510099, 20510100, 18110190, 20250034, 20510009, 18110054, 20510106, 20520031, 18110095</t>
+          <t>18110054, 20520031, 18110190, 20510103, 20510090, 20510021, 20250034, 20510009, 20510087, 18110095</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20520001, 20520002, 20310078, 18110016, 20520022, 20510087, 20310079, 18110041, 20520003, 18110017, 20520027, 20520018, 18110053</t>
+          <t>20520001, 20520002, 20310078, 18110016, 20520022, 20510086, 20310079, 20520025, 18110041, 20520003, 18110017, 20520027, 20520018, 18110053</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20520013, 17520008, 20520016, 20520007, 20510001, 20520027, 20520018, 20510021, 19110092, 18110161, 19110203, 18110027, 20520001, 20510017, 20520006, 20520002, 18110108, 18110169, 18110180, 20520009, 20520012, 20520022</t>
+          <t>20520013, 17520008, 20520016, 20520007, 20510001, 20520027, 20520018, 19110092, 19110203, 18110161, 18110027, 20520001, 20510017, 20520006, 20520002, 18110169, 18110180, 20510021, 20520009, 20520012, 20520022</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19110191, 20310080, 19110063, 20510004, 20510091, 19110177, 19310078, 19110187, 19110008, 20510065, 20510119, 20510103, 20250011, 19110196, 19110112, 20510117, 20510120, 18110172, 20310083, 20520015, 19110141, 18110095, 20310059, 20510022, 20510023, 18110168, 18110025, 20510021, 19110073, 19110183, 18110051</t>
+          <t>19110191, 20310080, 19110063, 20510004, 20510091, 19110177, 19310078, 19110187, 17210054, 20510065, 20510119, 20250011, 19110162, 20510100, 19110196, 19110183, 19110112, 20250008, 20510120, 20310083, 20520015, 19110141, 18110095, 19110075, 20310059, 20510022, 20510023, 18110168, 18110025, 19110073, 18110051</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20510017, 19110035, 19110025, 19110100, 20520031, 20570004, 20310081, 16210113, 19110205, 19110112</t>
+          <t>20510017, 19110035, 19110025, 19110205, 19110059, 19110112, 19110183, 16210113, 20520031, 20310081</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20210006, 20520015, 19350006, 18110175, 20250010, 18110086, 20310060, 18110120, 19110041, 18510030, 18110169, 18110180, 19110058, 20510010, 18110004, 20310020, 19110182, 18110013, 19110023, 18110090, 19110052, 19110053, 19110061, 19110062, 19110090, 19110039, 19110200, 19110190, 19110051, 19110038, 19110037, 19110003, 19110169, 19110060, 19110129, 18110121, 19110046, 19110144, 19110140, 19110199</t>
+          <t>20210006, 20520015, 19350006, 18110175, 20250010, 18110086, 20310060, 18110120, 19110041, 18510030, 18110169, 18110180, 19110058, 20510010, 18110004, 20310020, 19110178, 19110048, 19110127, 19110060, 18110114, 19110169, 19110157, 19110037, 18110192, 19110129, 19110182, 19110175, 19110023, 18110013, 19110088, 19110199, 19110151, 19110067, 19110068, 19110038, 19110003, 18110108, 19110140, 19110061</t>
         </is>
       </c>
     </row>
